--- a/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.1.0.xlsx
+++ b/文档/项目开发计划/SRA2021-G11-WBS输入输出v0.1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21590" windowHeight="11260"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="任务_表1" sheetId="1" r:id="rId1"/>
@@ -597,12 +597,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,51 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,9 +655,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,6 +689,53 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,44 +750,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +772,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +898,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,25 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,109 +940,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,18 +970,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,9 +1016,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,7 +1029,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,154 +1066,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1571,15 +1563,15 @@
   <sheetPr/>
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="28.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="41.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="47.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="28.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1594,12 +1586,12 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1659,7 +1651,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1730,7 +1722,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1812,7 +1804,7 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1850,17 +1842,17 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1964,7 +1956,7 @@
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2002,7 +1994,7 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2040,7 +2032,7 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2078,7 +2070,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B52" t="s">
@@ -2199,7 +2191,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B63" t="s">
@@ -2232,7 +2224,7 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2292,7 +2284,7 @@
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2385,7 +2377,7 @@
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2423,7 +2415,7 @@
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2439,7 +2431,7 @@
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2455,7 +2447,7 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2537,7 +2529,7 @@
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2575,7 +2567,7 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2635,12 +2627,12 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2656,7 +2648,7 @@
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2749,7 +2741,7 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2787,7 +2779,7 @@
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2858,12 +2850,12 @@
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2879,7 +2871,7 @@
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2961,7 +2953,7 @@
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3010,7 +3002,7 @@
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3070,12 +3062,12 @@
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3091,7 +3083,7 @@
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3184,7 +3176,7 @@
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3222,7 +3214,7 @@
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3282,12 +3274,12 @@
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="1" t="s">
         <v>165</v>
       </c>
     </row>
